--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/21.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/21.xlsx
@@ -479,13 +479,13 @@
         <v>-0.09120087425440244</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.95232898280351</v>
+        <v>-1.960565351622316</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4037268902791183</v>
+        <v>0.4001917900366866</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1627223001543985</v>
+        <v>-0.1700047530347703</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.09357837091815664</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.037900243830586</v>
+        <v>-2.033366703440318</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3408934720812102</v>
+        <v>0.3356359558476419</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1674924897672451</v>
+        <v>-0.1705555114058738</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.09683879194099226</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.144102681669342</v>
+        <v>-2.126669928886529</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2999330291928408</v>
+        <v>0.2876358085082465</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1884554634270758</v>
+        <v>-0.188476810650762</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1008947056547019</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.164957699369388</v>
+        <v>-2.144746147983311</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2840799709628053</v>
+        <v>0.2714357054131413</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2176554158263891</v>
+        <v>-0.2150388561231399</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1008327873807732</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.09648068514953</v>
+        <v>-2.076408195677752</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2841665796989035</v>
+        <v>0.2764425442485661</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2330174879116425</v>
+        <v>-0.2227811891937798</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.08822467981162482</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.918487534054145</v>
+        <v>-1.911713755018181</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3647706467345431</v>
+        <v>0.3498690647602345</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2051160566331258</v>
+        <v>-0.1954726008130623</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.05661108427051925</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.550945674721704</v>
+        <v>-1.540558725596685</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4082177362220143</v>
+        <v>0.3948385162568689</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1824843400017123</v>
+        <v>-0.1749274228168039</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.001951265969199943</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.157169907240977</v>
+        <v>-1.148686520548088</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3929654498585756</v>
+        <v>0.3700586590019488</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1566511497380484</v>
+        <v>-0.1400814347128339</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.07475725219199009</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6977197110500483</v>
+        <v>-0.6896120354940364</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3889960860942993</v>
+        <v>0.3625816414256943</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1062265677085794</v>
+        <v>-0.09393178670669206</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1695265250392525</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.08565211351983718</v>
+        <v>-0.06079540625964682</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3785969385557448</v>
+        <v>0.3433246158987279</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03110202803284437</v>
+        <v>-0.01718668779283743</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2815186821025495</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5772785990064248</v>
+        <v>0.6132078062322993</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3093001909463375</v>
+        <v>0.2717083399556477</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06498182577866093</v>
+        <v>0.07791031436368952</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4108791171622229</v>
       </c>
       <c r="E13" t="n">
-        <v>1.25305241122297</v>
+        <v>1.30252978644145</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2035704416320616</v>
+        <v>0.1606454442438868</v>
       </c>
       <c r="G13" t="n">
-        <v>0.195069977160224</v>
+        <v>0.2078533046241865</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.555508516162797</v>
       </c>
       <c r="E14" t="n">
-        <v>1.914868798672814</v>
+        <v>1.98106165995825</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01955249409175859</v>
+        <v>-0.02879774771609021</v>
       </c>
       <c r="G14" t="n">
-        <v>0.342026704698608</v>
+        <v>0.3560353628021574</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7129873339588504</v>
       </c>
       <c r="E15" t="n">
-        <v>2.585520497046029</v>
+        <v>2.657214232915056</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2165313320191424</v>
+        <v>-0.2680586506321719</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4939091516224094</v>
+        <v>0.5122525159756073</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8782048000055527</v>
       </c>
       <c r="E16" t="n">
-        <v>3.212384770194148</v>
+        <v>3.28603391175283</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4422831018659314</v>
+        <v>-0.5126813662175457</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6610298567340843</v>
+        <v>0.68038081004527</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.042475000014864</v>
       </c>
       <c r="E17" t="n">
-        <v>3.833671928674083</v>
+        <v>3.905221723263398</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7175762886022581</v>
+        <v>-0.7874036672004362</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8196183814987306</v>
+        <v>0.8398390816949589</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.197562698301592</v>
       </c>
       <c r="E18" t="n">
-        <v>4.38105987811787</v>
+        <v>4.458467350886672</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.0684667035388</v>
+        <v>-1.140520902527785</v>
       </c>
       <c r="G18" t="n">
-        <v>1.020655555603011</v>
+        <v>1.047476817363007</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.33714908149893</v>
       </c>
       <c r="E19" t="n">
-        <v>4.839132263500024</v>
+        <v>4.914317185322757</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.40756003274568</v>
+        <v>-1.48631847981348</v>
       </c>
       <c r="G19" t="n">
-        <v>1.215573395557479</v>
+        <v>1.246567734587785</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.461215105490825</v>
       </c>
       <c r="E20" t="n">
-        <v>5.226686840077922</v>
+        <v>5.296641082176863</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.689253117143124</v>
+        <v>-1.771016033464585</v>
       </c>
       <c r="G20" t="n">
-        <v>1.404889114096016</v>
+        <v>1.438923297779234</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.574458777517705</v>
       </c>
       <c r="E21" t="n">
-        <v>5.600413295072587</v>
+        <v>5.667119099647168</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.030272575847175</v>
+        <v>-2.119624735149412</v>
       </c>
       <c r="G21" t="n">
-        <v>1.586164248352983</v>
+        <v>1.62243989052325</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.677385244416941</v>
       </c>
       <c r="E22" t="n">
-        <v>5.859910146201815</v>
+        <v>5.927987052457727</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.389146852442348</v>
+        <v>-2.476962621559857</v>
       </c>
       <c r="G22" t="n">
-        <v>1.818194541646216</v>
+        <v>1.860429108828312</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.764298131134655</v>
       </c>
       <c r="E23" t="n">
-        <v>5.988420432792632</v>
+        <v>6.045161353350504</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.672802661577568</v>
+        <v>-2.750694411363709</v>
       </c>
       <c r="G23" t="n">
-        <v>1.939116195176933</v>
+        <v>1.982758459280963</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.831453851971305</v>
       </c>
       <c r="E24" t="n">
-        <v>6.070773142408508</v>
+        <v>6.129052282913138</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.918303053016782</v>
+        <v>-2.996404310555386</v>
       </c>
       <c r="G24" t="n">
-        <v>2.080876398549423</v>
+        <v>2.128428864112086</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.876581271101981</v>
       </c>
       <c r="E25" t="n">
-        <v>6.142472977484302</v>
+        <v>6.189385636257057</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.125330258087406</v>
+        <v>-3.192549920832148</v>
       </c>
       <c r="G25" t="n">
-        <v>2.167772407286396</v>
+        <v>2.207659999704366</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.899778165384939</v>
       </c>
       <c r="E26" t="n">
-        <v>6.173360580396178</v>
+        <v>6.212460155299788</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.290681888276173</v>
+        <v>-3.356022385415854</v>
       </c>
       <c r="G26" t="n">
-        <v>2.270322030192107</v>
+        <v>2.301997650618341</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.900410689585829</v>
       </c>
       <c r="E27" t="n">
-        <v>6.126924879592641</v>
+        <v>6.155231298200518</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.427851828635458</v>
+        <v>-3.501426254911237</v>
       </c>
       <c r="G27" t="n">
-        <v>2.262546761404923</v>
+        <v>2.30703559540828</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.875797078855982</v>
       </c>
       <c r="E28" t="n">
-        <v>5.990339243241681</v>
+        <v>6.011910917736906</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.474583950887894</v>
+        <v>-3.54821723450898</v>
       </c>
       <c r="G28" t="n">
-        <v>2.282965685821094</v>
+        <v>2.317019996886646</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.824480310909976</v>
       </c>
       <c r="E29" t="n">
-        <v>5.836447717608672</v>
+        <v>5.852688685389118</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.475247239623857</v>
+        <v>-3.535522040582807</v>
       </c>
       <c r="G29" t="n">
-        <v>2.251653578118203</v>
+        <v>2.28668010274249</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.745981049394078</v>
       </c>
       <c r="E30" t="n">
-        <v>5.691418339408811</v>
+        <v>5.694453304696309</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.500184761373717</v>
+        <v>-3.561278380841201</v>
       </c>
       <c r="G30" t="n">
-        <v>2.21708937336689</v>
+        <v>2.239229493932845</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.641203346662923</v>
       </c>
       <c r="E31" t="n">
-        <v>5.524042687454256</v>
+        <v>5.51657725837086</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.416379830626503</v>
+        <v>-3.467345107335909</v>
       </c>
       <c r="G31" t="n">
-        <v>2.075585946599311</v>
+        <v>2.102685332187904</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.51501973339844</v>
       </c>
       <c r="E32" t="n">
-        <v>5.240042883057351</v>
+        <v>5.23934147427909</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.329543289155514</v>
+        <v>-3.384142168296647</v>
       </c>
       <c r="G32" t="n">
-        <v>1.971019316015593</v>
+        <v>1.993130160389064</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.372552022663752</v>
       </c>
       <c r="E33" t="n">
-        <v>4.890429032097242</v>
+        <v>4.875345693761263</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.192422142450369</v>
+        <v>-3.237482472127839</v>
       </c>
       <c r="G33" t="n">
-        <v>1.827287849015853</v>
+        <v>1.845076795473887</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.21962479440149</v>
       </c>
       <c r="E34" t="n">
-        <v>4.52954018750677</v>
+        <v>4.511510932302098</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.03227923484103</v>
+        <v>-3.083376864337291</v>
       </c>
       <c r="G34" t="n">
-        <v>1.644154286456835</v>
+        <v>1.667093403109329</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.063321158920143</v>
       </c>
       <c r="E35" t="n">
-        <v>4.159652573251557</v>
+        <v>4.14081944259493</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.900232323206091</v>
+        <v>-2.939250778659694</v>
       </c>
       <c r="G35" t="n">
-        <v>1.516056306243501</v>
+        <v>1.533592135620684</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.907894740399206</v>
       </c>
       <c r="E36" t="n">
-        <v>3.766559916928787</v>
+        <v>3.754169988301327</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.764078510694268</v>
+        <v>-2.792909461084149</v>
       </c>
       <c r="G36" t="n">
-        <v>1.435413204284549</v>
+        <v>1.447282870574743</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.757114514462667</v>
       </c>
       <c r="E37" t="n">
-        <v>3.437335714192367</v>
+        <v>3.427170776193684</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.682042959830301</v>
+        <v>-2.710603715360382</v>
       </c>
       <c r="G37" t="n">
-        <v>1.322680955680529</v>
+        <v>1.332839184551768</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6148706900343661</v>
       </c>
       <c r="E38" t="n">
-        <v>3.094645682754703</v>
+        <v>3.07930617773449</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.602381220240237</v>
+        <v>-2.623839449489587</v>
       </c>
       <c r="G38" t="n">
-        <v>1.200314400066596</v>
+        <v>1.208208603385746</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4820664581418377</v>
       </c>
       <c r="E39" t="n">
-        <v>2.748713312999447</v>
+        <v>2.729691106933028</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.475450018281522</v>
+        <v>-2.497670038456131</v>
       </c>
       <c r="G39" t="n">
-        <v>1.065139510240954</v>
+        <v>1.073995558467336</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3595503187869524</v>
       </c>
       <c r="E40" t="n">
-        <v>2.441157152225178</v>
+        <v>2.420680895265392</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.398229791160481</v>
+        <v>-2.418097347284872</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9648545228080084</v>
+        <v>0.9715813379518627</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2489227263881224</v>
       </c>
       <c r="E41" t="n">
-        <v>2.083449043963947</v>
+        <v>2.067702721852342</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.311044070102053</v>
+        <v>-2.336266119847615</v>
       </c>
       <c r="G41" t="n">
-        <v>0.822076971746702</v>
+        <v>0.8267867792125505</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.1499035837880225</v>
       </c>
       <c r="E42" t="n">
-        <v>1.74795424674988</v>
+        <v>1.735933930052529</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.223505814892464</v>
+        <v>-2.246268054548702</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7410063153933502</v>
+        <v>0.7371949210843516</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.06290894813734546</v>
       </c>
       <c r="E43" t="n">
-        <v>1.471184442055146</v>
+        <v>1.454543366310752</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.142011263668773</v>
+        <v>-2.173199557474285</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6294323061544744</v>
+        <v>0.62815025289195</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.01113215536118778</v>
       </c>
       <c r="E44" t="n">
-        <v>1.207518783100344</v>
+        <v>1.190101888255127</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.058627178188515</v>
+        <v>-2.086216330080537</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5579648508565207</v>
+        <v>0.5489593720643356</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.07361958384005629</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9682895960594534</v>
+        <v>0.9466429013209882</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.952253352639594</v>
+        <v>-1.977147874981742</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4667426747593742</v>
+        <v>0.4572889042697793</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.1260284138899957</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7775051885313075</v>
+        <v>0.7559469322909705</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.859616770493068</v>
+        <v>-1.889971912654143</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3728331881604757</v>
+        <v>0.3630335926471647</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.1700323635253459</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5748389162994325</v>
+        <v>0.5545017212539453</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.774730450385981</v>
+        <v>-1.805450935032427</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3236479649461588</v>
+        <v>0.3135543876666552</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.20957637083387</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4451118379585043</v>
+        <v>0.4234157396452224</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.674528412165073</v>
+        <v>-1.703264824850057</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2318048896000827</v>
+        <v>0.2250341601675026</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.2474351376006607</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3194919654547975</v>
+        <v>0.3005258720906399</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.531902731352276</v>
+        <v>-1.562647612825792</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1595170909919029</v>
+        <v>0.1561789951280608</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2854660203543702</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2031233697760053</v>
+        <v>0.1772907894330181</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.426280328077108</v>
+        <v>-1.459589316075673</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1394543602509523</v>
+        <v>0.1296517151342575</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.3252080611248423</v>
       </c>
       <c r="E51" t="n">
-        <v>0.03319276010655216</v>
+        <v>0.01452857747738484</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.31660866142901</v>
+        <v>-1.352930047650033</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08735859556719369</v>
+        <v>0.07963882956159352</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.366608945299144</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.03746289077064986</v>
+        <v>-0.05572330591180997</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.228419620857331</v>
+        <v>-1.266181639716834</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05066942717809101</v>
+        <v>0.04309360245220338</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.4097503714616502</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1589725078337515</v>
+        <v>-0.1808345045711089</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.128624399727814</v>
+        <v>-1.166167457064364</v>
       </c>
       <c r="G53" t="n">
-        <v>0.003367639013572126</v>
+        <v>-0.0007005319003374207</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.4550823771742534</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2831121028549907</v>
+        <v>-0.3002649020471763</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.052935683426087</v>
+        <v>-1.094560329931435</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.07729376056568178</v>
+        <v>-0.0814656179946385</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.5016887624307124</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.355151663747734</v>
+        <v>-0.374402590067933</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9810406737337329</v>
+        <v>-1.026643832813508</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.09728940003219012</v>
+        <v>-0.1034819246632132</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.5491189919866331</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4075810550416739</v>
+        <v>-0.4285739148146653</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.907741016722828</v>
+        <v>-0.9576148403811935</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1430108837232548</v>
+        <v>-0.14709674233679</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.5979741685716583</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.4972406143649919</v>
+        <v>-0.5154589449794563</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8978072386606324</v>
+        <v>-0.9450309569785276</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1919246922364188</v>
+        <v>-0.1949389202209077</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.6480402841011809</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.5732105040986998</v>
+        <v>-0.5877138078710918</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8222569743525272</v>
+        <v>-0.8756585792052034</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2304546012279471</v>
+        <v>-0.2330174879116425</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.6992423272659697</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.6813348019898885</v>
+        <v>-0.6965572022401665</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8113979466237048</v>
+        <v>-0.857030991816641</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2630292447317074</v>
+        <v>-0.270936866305746</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.7516412056914777</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8241898129771419</v>
+        <v>-0.8273528616067573</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8122487859677684</v>
+        <v>-0.8585686018427229</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2921669852219924</v>
+        <v>-0.2995720321583905</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.8038525874754371</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9208006382533575</v>
+        <v>-0.9261661104467102</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8188383689593544</v>
+        <v>-0.8660864841043194</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.339152224555279</v>
+        <v>-0.3527888310460121</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.8549465362132928</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.022013315035637</v>
+        <v>-1.026437069704091</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7748618683244659</v>
+        <v>-0.8289380454456254</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3403226623339585</v>
+        <v>-0.3461236178905093</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.9043185272663925</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.12826698621124</v>
+        <v>-1.125329608232021</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7880148077185378</v>
+        <v>-0.8448649040775476</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3862942135024899</v>
+        <v>-0.3954814486563459</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.9508018682462849</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.163435012432533</v>
+        <v>-1.162615279042983</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7989567846593979</v>
+        <v>-0.8539551618438006</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4016056621715731</v>
+        <v>-0.4155271016183475</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.9938819924309074</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.257068814885541</v>
+        <v>-1.244936882704345</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.840714393872277</v>
+        <v>-0.9023487080196985</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4511489088231411</v>
+        <v>-0.4622329972816836</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.033204759135185</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.309679962541152</v>
+        <v>-1.306809065915699</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.8579367240216119</v>
+        <v>-0.9235769971739146</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5012667007522058</v>
+        <v>-0.5102093577146858</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.067956268485893</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.361779996669648</v>
+        <v>-1.35924760601979</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9188055877197145</v>
+        <v>-0.9843824291216355</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5361151285388829</v>
+        <v>-0.546897306262435</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.098453257737386</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.428583998473186</v>
+        <v>-1.424454225570924</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9806436153731699</v>
+        <v>-1.044233335210246</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5798885255884142</v>
+        <v>-0.5898326723021146</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.124865819409291</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.483227401823721</v>
+        <v>-1.479531892443304</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.051679246831986</v>
+        <v>-1.117698280724549</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.55507756237898</v>
+        <v>-0.5658737682780973</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.146751244137074</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.531047622563476</v>
+        <v>-1.524916699920804</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.090824565786353</v>
+        <v>-1.157326046934224</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5896801921329275</v>
+        <v>-0.6027947065243643</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.16420466550789</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.531570324583449</v>
+        <v>-1.527477146921792</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.202163145644004</v>
+        <v>-1.265135015835534</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6077497021022655</v>
+        <v>-0.623075178946914</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.176602356716407</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.61229027654767</v>
+        <v>-1.60532071297447</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.278679524304078</v>
+        <v>-1.335527790901058</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6021250136212949</v>
+        <v>-0.6146369263841046</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.182980873124691</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.53865211356117</v>
+        <v>-1.531448340448099</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.38073206185824</v>
+        <v>-1.443054366529033</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6470066365404775</v>
+        <v>-0.6554143930694495</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.182590052655304</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.490245759051061</v>
+        <v>-1.485657325799885</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.487297402499661</v>
+        <v>-1.548831079735419</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6420138258806179</v>
+        <v>-0.6570319027041853</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.173577994841746</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.429141465971733</v>
+        <v>-1.419920075259979</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.52738016953419</v>
+        <v>-1.594406792384741</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.652251344439834</v>
+        <v>-0.6593239846074045</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.154699375318499</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.336021216728547</v>
+        <v>-1.334650724967894</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.587962980434897</v>
+        <v>-1.654663295723388</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6024067969739525</v>
+        <v>-0.6176682321475424</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.125329376349439</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.238249102483803</v>
+        <v>-1.235863702717041</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.634987864612173</v>
+        <v>-1.699454650382412</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5793877807128041</v>
+        <v>-0.5889989107369999</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.084411810365765</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.119175508603633</v>
+        <v>-1.114173549133622</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.691377470860238</v>
+        <v>-1.751763887303033</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5537082904596806</v>
+        <v>-0.5727622124012899</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.032088538218694</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8642981966800941</v>
+        <v>-0.8640365407097692</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.719722924391427</v>
+        <v>-1.788958679933159</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.468380997703304</v>
+        <v>-0.4908937798027516</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.9688997657647378</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.683032821153955</v>
+        <v>-0.6840776152732244</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.779359748322499</v>
+        <v>-1.84092270175074</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4439121999935254</v>
+        <v>-0.4630417520990515</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.894729923174076</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3836898522127757</v>
+        <v>-0.3888436819312968</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.758826158819098</v>
+        <v>-1.823647308502528</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4116388573040787</v>
+        <v>-0.4331391710801245</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.8108486225100837</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1323726472794152</v>
+        <v>-0.1261606051867362</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.794127147747922</v>
+        <v>-1.849702509892529</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3006467123908206</v>
+        <v>-0.3264384280484657</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.7182751062132947</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1615957006582603</v>
+        <v>0.1739276868214293</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.778915726069826</v>
+        <v>-1.829782500589937</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2490779191717723</v>
+        <v>-0.2732423664638536</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.6175150271913845</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4976790713253892</v>
+        <v>0.5126483544948167</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.757524588094918</v>
+        <v>-1.794214366404697</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1470497784446804</v>
+        <v>-0.1690703545579923</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5111249888885202</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7727045028846234</v>
+        <v>0.7940498968087752</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.716127442001997</v>
+        <v>-1.744012405422241</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.06136385233037601</v>
+        <v>-0.08044400086108551</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4017308653576557</v>
       </c>
       <c r="E86" t="n">
-        <v>1.036270134848438</v>
+        <v>1.067090646485871</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.593260751433131</v>
+        <v>-1.614945871174231</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.01215362236831245</v>
+        <v>-0.02942474617178721</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.292562524385051</v>
       </c>
       <c r="E87" t="n">
-        <v>1.279627874950237</v>
+        <v>1.319174521709904</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.451857351656538</v>
+        <v>-1.468957087749847</v>
       </c>
       <c r="G87" t="n">
-        <v>0.06930677329748142</v>
+        <v>0.04963195210694257</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1891357139284403</v>
       </c>
       <c r="E88" t="n">
-        <v>1.54193158103386</v>
+        <v>1.580813414255872</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.358763329002452</v>
+        <v>-1.366190943003889</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09995345754204109</v>
+        <v>0.08084159313614069</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.09713278055943948</v>
       </c>
       <c r="E89" t="n">
-        <v>1.747802376501369</v>
+        <v>1.789242826962339</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.205399384754829</v>
+        <v>-1.202342462322968</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1416842302451432</v>
+        <v>0.1254335037338679</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.02157196165339458</v>
       </c>
       <c r="E90" t="n">
-        <v>1.915455542363845</v>
+        <v>1.965035384256018</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.047539715198897</v>
+        <v>-1.033696345598746</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1913836165899587</v>
+        <v>0.1744607574929071</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.03192636067915505</v>
       </c>
       <c r="E91" t="n">
-        <v>2.031542964610657</v>
+        <v>2.08514584328666</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8179661823916047</v>
+        <v>-0.7993715307195866</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1849032093995106</v>
+        <v>0.170004067107909</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.06016780709847414</v>
       </c>
       <c r="E92" t="n">
-        <v>2.174280260907298</v>
+        <v>2.224498689748026</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6434190831198454</v>
+        <v>-0.6192674441619759</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2055965981202187</v>
+        <v>0.1799970074757492</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06326793876356157</v>
       </c>
       <c r="E93" t="n">
-        <v>2.159629966251809</v>
+        <v>2.21473751923735</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4188145740660196</v>
+        <v>-0.3958388621729202</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1668269903027284</v>
+        <v>0.1472887913437811</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04411062029600488</v>
       </c>
       <c r="E94" t="n">
-        <v>2.180258703380782</v>
+        <v>2.230334410783151</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2657177750748128</v>
+        <v>-0.2474774873159854</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1262050533899542</v>
+        <v>0.107124294938568</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.01083137721437305</v>
       </c>
       <c r="E95" t="n">
-        <v>2.139153099371347</v>
+        <v>2.189624645292925</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.127235895339843</v>
+        <v>-0.1118957803989526</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0939823341166776</v>
+        <v>0.07525654949915872</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.02536983291882301</v>
       </c>
       <c r="E96" t="n">
-        <v>2.036601646703605</v>
+        <v>2.079930411579787</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.008968006673657346</v>
+        <v>0.003847646586172847</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04533567085992925</v>
+        <v>0.02795232165193285</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05363475782622053</v>
       </c>
       <c r="E97" t="n">
-        <v>1.870758725409717</v>
+        <v>1.908002921614661</v>
       </c>
       <c r="F97" t="n">
-        <v>0.04313873658228274</v>
+        <v>0.05047425256153163</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05293589241288679</v>
+        <v>0.03591239640417175</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.06702574621170192</v>
       </c>
       <c r="E98" t="n">
-        <v>1.674289247253603</v>
+        <v>1.70331781194275</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08087513877336183</v>
+        <v>0.08744520430329192</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03015413529499333</v>
+        <v>0.01358442026977884</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.06421994090134005</v>
       </c>
       <c r="E99" t="n">
-        <v>1.482467974574985</v>
+        <v>1.508367646192414</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1019851033162889</v>
+        <v>0.1116011127058987</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01960372742860543</v>
+        <v>0.007058878949251372</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.05146666611051485</v>
       </c>
       <c r="E100" t="n">
-        <v>1.341511036733771</v>
+        <v>1.371261747504188</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1241111957066782</v>
+        <v>0.1298920238808963</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.008856391189812452</v>
+        <v>-0.02477593077361351</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.03686318732968213</v>
       </c>
       <c r="E101" t="n">
-        <v>1.178404829516452</v>
+        <v>1.206298941746848</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1549811109189276</v>
+        <v>0.1638030035874115</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.03965189607949864</v>
+        <v>-0.05108729884784798</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.03168343812609745</v>
       </c>
       <c r="E102" t="n">
-        <v>1.018007889945248</v>
+        <v>1.04020107361008</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1343432249798036</v>
+        <v>0.1490923267849251</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.04900258997472312</v>
+        <v>-0.06369313939487685</v>
       </c>
     </row>
   </sheetData>
